--- a/datasetProcessed.xlsx
+++ b/datasetProcessed.xlsx
@@ -16,10 +16,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -382,13 +378,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="B1" s="2">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="C1" s="2">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D1" s="2">
         <v>0.2</v>
@@ -405,13 +401,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C2" s="2">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D2" s="2">
         <v>0.2</v>
@@ -428,16 +424,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="B3" s="2">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D3" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -451,16 +447,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="B4" s="2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -474,13 +470,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="B5" s="2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D5" s="2">
         <v>0.2</v>
@@ -497,13 +493,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="B6" s="2">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="2">
         <v>0.4</v>
@@ -520,16 +516,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>4.5999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="B7" s="2">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C7" s="2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D7" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -543,16 +539,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B8" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -566,16 +562,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>4.4000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="B9" s="2">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="C9" s="2">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D9" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -589,16 +585,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B10" s="2">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="C10" s="2">
         <v>1.5</v>
       </c>
       <c r="D10" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -615,10 +611,10 @@
         <v>5.4</v>
       </c>
       <c r="B11" s="2">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="C11" s="2">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D11" s="2">
         <v>0.2</v>
@@ -635,16 +631,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B12" s="2">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="C12" s="2">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D12" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -658,16 +654,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="C13" s="2">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -681,16 +677,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>4.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="C14" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="D14" s="2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -704,13 +700,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="C15" s="2">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="D15" s="2">
         <v>0.2</v>
@@ -727,16 +723,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>4.4000000000000004</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D16" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -750,13 +746,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="C17" s="2">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D17" s="2">
         <v>0.4</v>
@@ -773,16 +769,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="B18" s="2">
         <v>3.5</v>
       </c>
       <c r="C18" s="2">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -796,16 +792,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="B19" s="2">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="C19" s="2">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D19" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -819,16 +815,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="B20" s="2">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="C20" s="2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D20" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -842,13 +838,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="B21" s="2">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C21" s="2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="D21" s="2">
         <v>0.2</v>
@@ -865,10 +861,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="B22" s="2">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="C22" s="2">
         <v>1.5</v>
@@ -888,16 +884,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>4.5999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="B23" s="2">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D23" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -911,16 +907,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="B24" s="2">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="C24" s="2">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D24" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -934,13 +930,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B25" s="2">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C25" s="2">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="D25" s="2">
         <v>0.2</v>
@@ -960,10 +956,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C26" s="2">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="D26" s="2">
         <v>0.2</v>
@@ -980,16 +976,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B27" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C27" s="2">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1003,16 +999,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B28" s="2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C28" s="2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D28" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1026,13 +1022,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>5.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B29" s="2">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D29" s="2">
         <v>0.2</v>
@@ -1049,13 +1045,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B30" s="2">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="C30" s="2">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D30" s="2">
         <v>0.2</v>
@@ -1072,16 +1068,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="C31" s="2">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -1095,16 +1091,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="B32" s="2">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C32" s="2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1118,16 +1114,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>5.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B33" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="C33" s="2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1141,16 +1137,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="C34" s="2">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D34" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1164,16 +1160,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B35" s="2">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="C35" s="2">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D35" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1187,16 +1183,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="B36" s="2">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D36" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -1210,13 +1206,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B37" s="2">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="C37" s="2">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D37" s="2">
         <v>0.2</v>
@@ -1233,16 +1229,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B38" s="2">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="C38" s="2">
         <v>1.4</v>
       </c>
       <c r="D38" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -1256,13 +1252,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>4.4000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="B39" s="2">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="C39" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D39" s="2">
         <v>0.2</v>
@@ -1279,13 +1275,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="B40" s="2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C40" s="2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D40" s="2">
         <v>0.2</v>
@@ -1305,19 +1301,19 @@
         <v>5</v>
       </c>
       <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
         <v>3.5</v>
       </c>
-      <c r="C41" s="2">
-        <v>1.3</v>
-      </c>
       <c r="D41" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -1325,22 +1321,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="B42" s="2">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="D42" s="2">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -1348,22 +1344,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>4.4000000000000004</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C43" s="2">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -1371,22 +1367,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="B44" s="2">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="C44" s="2">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="D44" s="2">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -1394,22 +1390,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="B45" s="2">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="C45" s="2">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="D45" s="2">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="E45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -1417,22 +1413,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="B46" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C46" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D46" s="2">
         <v>1.4</v>
       </c>
-      <c r="D46" s="2">
-        <v>0.3</v>
-      </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -1440,22 +1436,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="B47" s="2">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C47" s="2">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="D47" s="2">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="E47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -1463,22 +1459,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>4.5999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="B48" s="2">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="C48" s="2">
-        <v>1.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D48" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -1486,22 +1482,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="B49" s="2">
-        <v>3.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C49" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D49" s="2">
         <v>1.5</v>
       </c>
-      <c r="D49" s="2">
-        <v>0.2</v>
-      </c>
       <c r="E49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -1509,22 +1505,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="B50" s="2">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="C50" s="2">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="D50" s="2">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
@@ -1532,16 +1528,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="B51" s="2">
         <v>3.2</v>
       </c>
       <c r="C51" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D51" s="2">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -1555,16 +1551,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="B52" s="2">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="C52" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -1578,10 +1574,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="B53" s="2">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="C53" s="2">
         <v>4.9000000000000004</v>
@@ -1601,16 +1597,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="B54" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="C54" s="2">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D54" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -1624,16 +1620,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="B55" s="2">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C55" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="D55" s="2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -1647,16 +1643,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="B56" s="2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C56" s="2">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D56" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -1670,16 +1666,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="B57" s="2">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="C57" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D57" s="2">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -1693,16 +1689,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>4.9000000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="B58" s="2">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="2">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="D58" s="2">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -1716,16 +1712,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="B59" s="2">
         <v>2.9</v>
       </c>
       <c r="C59" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="D59" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -1739,16 +1735,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="B60" s="2">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C60" s="2">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D60" s="2">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -1762,16 +1758,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B61" s="2">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C61" s="2">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D61" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -1785,16 +1781,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="B62" s="2">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C62" s="2">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D62" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -1808,16 +1804,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="B63" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="C63" s="2">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D63" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -1831,16 +1827,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="B64" s="2">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="C64" s="2">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D64" s="2">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -1854,16 +1850,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="B65" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C65" s="2">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D65" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -1877,16 +1873,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="C66" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D66" s="2">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -1900,13 +1896,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="B67" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C67" s="2">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D67" s="2">
         <v>1.5</v>
@@ -1923,16 +1919,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="B68" s="2">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C68" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D68" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -1946,16 +1942,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="B69" s="2">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D69" s="2">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -1969,16 +1965,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="B70" s="2">
         <v>2.5</v>
       </c>
       <c r="C70" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D70" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -1992,16 +1988,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="B71" s="2">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="C71" s="2">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D71" s="2">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -2018,13 +2014,13 @@
         <v>6.1</v>
       </c>
       <c r="B72" s="2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D72" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -2038,16 +2034,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="B73" s="2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="C73" s="2">
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="D73" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -2061,16 +2057,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="B74" s="2">
-        <v>2.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C74" s="2">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D74" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -2084,13 +2080,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="B75" s="2">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="C75" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D75" s="2">
         <v>1.3</v>
@@ -2107,16 +2103,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
       </c>
       <c r="C76" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="D76" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -2130,16 +2126,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="B77" s="2">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C77" s="2">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="D77" s="2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -2153,16 +2149,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="B78" s="2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C78" s="2">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="D78" s="2">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -2176,16 +2172,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B79" s="2">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="C79" s="2">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="2">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -2202,13 +2198,13 @@
         <v>5.7</v>
       </c>
       <c r="B80" s="2">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="C80" s="2">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D80" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -2222,476 +2218,476 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="B81" s="2">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="C81" s="2">
-        <v>3.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D81" s="2">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
       </c>
       <c r="F81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="B82" s="2">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="C82" s="2">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="D82" s="2">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
       </c>
       <c r="F82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="B83" s="2">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="C83" s="2">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="D83" s="2">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
       </c>
       <c r="F83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="B84" s="2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="C84" s="2">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D84" s="2">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
       </c>
       <c r="F84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="B85" s="2">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C85" s="2">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D85" s="2">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
       </c>
       <c r="F85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="B86" s="2">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="C86" s="2">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="D86" s="2">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
       </c>
       <c r="F86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="B87" s="2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C87" s="2">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="D87" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
       </c>
       <c r="F87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="B88" s="2">
-        <v>2.2999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="C88" s="2">
-        <v>4.4000000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="D88" s="2">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
       </c>
       <c r="F88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="B89" s="2">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C89" s="2">
-        <v>4.0999999999999996</v>
+        <v>6.9</v>
       </c>
       <c r="D89" s="2">
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
       </c>
       <c r="F89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="B90" s="2">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C90" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
       </c>
       <c r="F90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="B91" s="2">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="C91" s="2">
-        <v>4.4000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="D91" s="2">
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
       </c>
       <c r="F91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="B92" s="2">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C92" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D92" s="2">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
       </c>
       <c r="F92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>5.8</v>
+        <v>7.7</v>
       </c>
       <c r="B93" s="2">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="C93" s="2">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="D93" s="2">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E93" s="2">
         <v>0</v>
       </c>
       <c r="F93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="B94" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="C94" s="2">
-        <v>3.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D94" s="2">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
       </c>
       <c r="F94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="B95" s="2">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="C95" s="2">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="D95" s="2">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="E95" s="2">
         <v>0</v>
       </c>
       <c r="F95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="B96" s="2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C96" s="2">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="E96" s="2">
         <v>0</v>
       </c>
       <c r="F96" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="B97" s="2">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C97" s="2">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D97" s="2">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
       </c>
       <c r="F97" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B98" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C98" s="2">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D98" s="2">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="E98" s="2">
         <v>0</v>
       </c>
       <c r="F98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="B99" s="2">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="C99" s="2">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="D99" s="2">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
       </c>
       <c r="F99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="B100" s="2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C100" s="2">
-        <v>4.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="D100" s="2">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
       </c>
       <c r="F100" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="B101" s="2">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="C101" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D101" s="2">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -2705,16 +2701,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="B102" s="2">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="C102" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="D102" s="2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E102" s="2">
         <v>0</v>
@@ -2728,16 +2724,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="B103" s="2">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C103" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="D103" s="2">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -2754,13 +2750,13 @@
         <v>6.3</v>
       </c>
       <c r="B104" s="2">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C104" s="2">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D104" s="2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E104" s="2">
         <v>0</v>
@@ -2774,16 +2770,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="B105" s="2">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C105" s="2">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="D105" s="2">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -2797,16 +2793,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="B106" s="2">
         <v>3</v>
       </c>
       <c r="C106" s="2">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="D106" s="2">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E106" s="2">
         <v>0</v>
@@ -2820,16 +2816,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>4.9000000000000004</v>
+        <v>6.3</v>
       </c>
       <c r="B107" s="2">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="C107" s="2">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="D107" s="2">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
@@ -2843,13 +2839,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="B108" s="2">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C108" s="2">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="D108" s="2">
         <v>1.8</v>
@@ -2866,13 +2862,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="B109" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C109" s="2">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="D109" s="2">
         <v>1.8</v>
@@ -2889,16 +2885,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="B110" s="2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="C110" s="2">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="D110" s="2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="E110" s="2">
         <v>0</v>
@@ -2912,16 +2908,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="B111" s="2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="C111" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="D111" s="2">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
@@ -2935,16 +2931,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="B112" s="2">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="C112" s="2">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D112" s="2">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
@@ -2958,16 +2954,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="B113" s="2">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C113" s="2">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D113" s="2">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
@@ -2981,16 +2977,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="B114" s="2">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="C114" s="2">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="D114" s="2">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E114" s="2">
         <v>0</v>
@@ -3004,16 +3000,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="B115" s="2">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="C115" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="D115" s="2">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E115" s="2">
         <v>0</v>
@@ -3027,13 +3023,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="B116" s="2">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C116" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D116" s="2">
         <v>2.2999999999999998</v>
@@ -3050,16 +3046,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="B117" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C117" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D117" s="2">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="E117" s="2">
         <v>0</v>
@@ -3073,16 +3069,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="B118" s="2">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C118" s="2">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="D118" s="2">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="E118" s="2">
         <v>0</v>
@@ -3096,13 +3092,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="B119" s="2">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="C119" s="2">
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
       <c r="D119" s="2">
         <v>2.2999999999999998</v>
@@ -3119,16 +3115,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="B120" s="2">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="C120" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D120" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E120" s="2">
         <v>0</v>
@@ -3137,696 +3133,6 @@
         <v>0</v>
       </c>
       <c r="G120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="B121" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="C121" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="D121" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E121" s="2">
-        <v>0</v>
-      </c>
-      <c r="F121" s="2">
-        <v>0</v>
-      </c>
-      <c r="G121" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="B122" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C122" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D122" s="2">
-        <v>2</v>
-      </c>
-      <c r="E122" s="2">
-        <v>0</v>
-      </c>
-      <c r="F122" s="2">
-        <v>0</v>
-      </c>
-      <c r="G122" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="B123" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C123" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="D123" s="2">
-        <v>2</v>
-      </c>
-      <c r="E123" s="2">
-        <v>0</v>
-      </c>
-      <c r="F123" s="2">
-        <v>0</v>
-      </c>
-      <c r="G123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="B124" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="C124" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D124" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E124" s="2">
-        <v>0</v>
-      </c>
-      <c r="F124" s="2">
-        <v>0</v>
-      </c>
-      <c r="G124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="B125" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="C125" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="D125" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="E125" s="2">
-        <v>0</v>
-      </c>
-      <c r="F125" s="2">
-        <v>0</v>
-      </c>
-      <c r="G125" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="B126" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="C126" s="2">
-        <v>6</v>
-      </c>
-      <c r="D126" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E126" s="2">
-        <v>0</v>
-      </c>
-      <c r="F126" s="2">
-        <v>0</v>
-      </c>
-      <c r="G126" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="B127" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C127" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="D127" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E127" s="2">
-        <v>0</v>
-      </c>
-      <c r="F127" s="2">
-        <v>0</v>
-      </c>
-      <c r="G127" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="B128" s="2">
-        <v>3</v>
-      </c>
-      <c r="C128" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D128" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E128" s="2">
-        <v>0</v>
-      </c>
-      <c r="F128" s="2">
-        <v>0</v>
-      </c>
-      <c r="G128" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="B129" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C129" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="D129" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="E129" s="2">
-        <v>0</v>
-      </c>
-      <c r="F129" s="2">
-        <v>0</v>
-      </c>
-      <c r="G129" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="B130" s="2">
-        <v>3</v>
-      </c>
-      <c r="C130" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="D130" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="E130" s="2">
-        <v>0</v>
-      </c>
-      <c r="F130" s="2">
-        <v>0</v>
-      </c>
-      <c r="G130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="B131" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C131" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="D131" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="E131" s="2">
-        <v>0</v>
-      </c>
-      <c r="F131" s="2">
-        <v>0</v>
-      </c>
-      <c r="G131" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="B132" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="C132" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="D132" s="2">
-        <v>2</v>
-      </c>
-      <c r="E132" s="2">
-        <v>0</v>
-      </c>
-      <c r="F132" s="2">
-        <v>0</v>
-      </c>
-      <c r="G132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="B133" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C133" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="D133" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E133" s="2">
-        <v>0</v>
-      </c>
-      <c r="F133" s="2">
-        <v>0</v>
-      </c>
-      <c r="G133" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="B134" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="C134" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D134" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E134" s="2">
-        <v>0</v>
-      </c>
-      <c r="F134" s="2">
-        <v>0</v>
-      </c>
-      <c r="G134" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="B135" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="C135" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="D135" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E135" s="2">
-        <v>0</v>
-      </c>
-      <c r="F135" s="2">
-        <v>0</v>
-      </c>
-      <c r="G135" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="B136" s="2">
-        <v>3</v>
-      </c>
-      <c r="C136" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="D136" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E136" s="2">
-        <v>0</v>
-      </c>
-      <c r="F136" s="2">
-        <v>0</v>
-      </c>
-      <c r="G136" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="B137" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="C137" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="D137" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E137" s="2">
-        <v>0</v>
-      </c>
-      <c r="F137" s="2">
-        <v>0</v>
-      </c>
-      <c r="G137" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="B138" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="C138" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="D138" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E138" s="2">
-        <v>0</v>
-      </c>
-      <c r="F138" s="2">
-        <v>0</v>
-      </c>
-      <c r="G138" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>6</v>
-      </c>
-      <c r="B139" s="2">
-        <v>3</v>
-      </c>
-      <c r="C139" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="D139" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E139" s="2">
-        <v>0</v>
-      </c>
-      <c r="F139" s="2">
-        <v>0</v>
-      </c>
-      <c r="G139" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="B140" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="C140" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="D140" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="E140" s="2">
-        <v>0</v>
-      </c>
-      <c r="F140" s="2">
-        <v>0</v>
-      </c>
-      <c r="G140" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="B141" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="C141" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="D141" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E141" s="2">
-        <v>0</v>
-      </c>
-      <c r="F141" s="2">
-        <v>0</v>
-      </c>
-      <c r="G141" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="B142" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="C142" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D142" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E142" s="2">
-        <v>0</v>
-      </c>
-      <c r="F142" s="2">
-        <v>0</v>
-      </c>
-      <c r="G142" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="B143" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="C143" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D143" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="E143" s="2">
-        <v>0</v>
-      </c>
-      <c r="F143" s="2">
-        <v>0</v>
-      </c>
-      <c r="G143" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="B144" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="C144" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="D144" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E144" s="2">
-        <v>0</v>
-      </c>
-      <c r="F144" s="2">
-        <v>0</v>
-      </c>
-      <c r="G144" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="B145" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="C145" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="D145" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E145" s="2">
-        <v>0</v>
-      </c>
-      <c r="F145" s="2">
-        <v>0</v>
-      </c>
-      <c r="G145" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="B146" s="2">
-        <v>3</v>
-      </c>
-      <c r="C146" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="D146" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E146" s="2">
-        <v>0</v>
-      </c>
-      <c r="F146" s="2">
-        <v>0</v>
-      </c>
-      <c r="G146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="B147" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C147" s="2">
-        <v>5</v>
-      </c>
-      <c r="D147" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="E147" s="2">
-        <v>0</v>
-      </c>
-      <c r="F147" s="2">
-        <v>0</v>
-      </c>
-      <c r="G147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="B148" s="2">
-        <v>3</v>
-      </c>
-      <c r="C148" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="D148" s="2">
-        <v>2</v>
-      </c>
-      <c r="E148" s="2">
-        <v>0</v>
-      </c>
-      <c r="F148" s="2">
-        <v>0</v>
-      </c>
-      <c r="G148" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="B149" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="C149" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="D149" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E149" s="2">
-        <v>0</v>
-      </c>
-      <c r="F149" s="2">
-        <v>0</v>
-      </c>
-      <c r="G149" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="B150" s="2">
-        <v>3</v>
-      </c>
-      <c r="C150" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D150" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="E150" s="2">
-        <v>0</v>
-      </c>
-      <c r="F150" s="2">
-        <v>0</v>
-      </c>
-      <c r="G150" s="2">
         <v>1</v>
       </c>
     </row>
